--- a/docs/クロストークデータ.xlsx
+++ b/docs/クロストークデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\github\Ksimulation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77D5B7-C4EE-42F2-A38C-B59324959649}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CB572-2F70-4CEE-A1D2-048E1FAB76DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B56CFB08-3319-4E04-93BD-A17BBE58B3D6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>ratio</t>
     <phoneticPr fontId="1"/>
@@ -119,17 +119,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>減衰機あり</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンスイ</t>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図り直し</t>
+    <rPh sb="0" eb="1">
+      <t>ハカ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち上がり[ns]</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つ隣</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5mm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -139,7 +167,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,7 +215,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1058FF2A-26C0-4242-8E8B-5C3737B63B7C}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -518,6 +546,7 @@
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,9 +729,6 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="2">
         <v>14</v>
       </c>
@@ -769,7 +795,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>12.5</v>
@@ -791,7 +817,7 @@
         <v>336</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:I14" si="2">H12/(E12)</f>
+        <f t="shared" ref="I12:I15" si="2">H12/(E12)</f>
         <v>0.11428571428571428</v>
       </c>
     </row>
@@ -828,7 +854,7 @@
         <v>580</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G13:G14" si="3">F14/(E14)</f>
+        <f t="shared" ref="G14:G15" si="3">F14/(E14)</f>
         <v>0.19727891156462585</v>
       </c>
       <c r="H14">
@@ -837,6 +863,136 @@
       <c r="I14" s="1">
         <f t="shared" si="2"/>
         <v>0.10612244897959183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3860</v>
+      </c>
+      <c r="F15">
+        <v>764</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19792746113989637</v>
+      </c>
+      <c r="H15">
+        <v>468</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12124352331606218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3900</v>
+      </c>
+      <c r="F16">
+        <v>940</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F16/(E16)</f>
+        <v>0.24102564102564103</v>
+      </c>
+      <c r="H16">
+        <v>564</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16:I17" si="4">H16/(E16)</f>
+        <v>0.14461538461538462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>3820</v>
+      </c>
+      <c r="F17">
+        <v>776</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17" si="5">F17/(E17)</f>
+        <v>0.2031413612565445</v>
+      </c>
+      <c r="H17">
+        <v>410</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10732984293193717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <f>C3</f>
+        <v>2.58</v>
+      </c>
+      <c r="B21" s="1">
+        <f>G3</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="C21" s="2">
+        <f>G4</f>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <f>C6</f>
+        <v>79.2</v>
+      </c>
+      <c r="B22" s="1">
+        <f>G6</f>
+        <v>0.19272727272727272</v>
+      </c>
+      <c r="C22" s="2">
+        <f>G7</f>
+        <v>0.19272727272727272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <f>C15</f>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <f>G15</f>
+        <v>0.19792746113989637</v>
+      </c>
+      <c r="C23" s="2">
+        <f>G16</f>
+        <v>0.24102564102564103</v>
       </c>
     </row>
   </sheetData>

--- a/docs/クロストークデータ.xlsx
+++ b/docs/クロストークデータ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\github\Ksimulation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuuma\Desktop\Ksimulation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CB572-2F70-4CEE-A1D2-048E1FAB76DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F04EDB-3097-4B16-92C3-F447E911C06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B56CFB08-3319-4E04-93BD-A17BBE58B3D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B56CFB08-3319-4E04-93BD-A17BBE58B3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ratio</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +169,10 @@
     <t>0.5mm</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2.0mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -194,12 +207,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -208,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +244,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -233,6 +270,3875 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>1mm</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19792746113989637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19272727272727272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23DC-4F49-AB23-2A6554307BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="322382640"/>
+        <c:axId val="322382968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="322382640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322382968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="322382968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322382640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>0.5mm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0286526684164479E-3"/>
+                  <c:y val="5.8724482356372121E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24102564102564103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19272727272727272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D60-4C33-8015-4073E0536F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460321816"/>
+        <c:axId val="460323128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460321816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460323128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460323128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460321816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="79000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>2.0mm</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.16470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2031413612565445</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.10909090909090909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A57-4E21-BE6E-A5E03072A573}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556193648"/>
+        <c:axId val="556194960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556193648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556194960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556194960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556193648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7309711286089241E-4"/>
+                  <c:y val="5.4094852726742491E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24102564102564103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19272727272727272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-055E-4176-AD02-00A88E685EDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108781392"/>
+        <c:axId val="108781720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="108781392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108781720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108781720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108781392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>750570</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423FFA15-EBF3-4805-84EE-55B58604FFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>231290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>231289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18ABC76D-413A-4306-95D2-BECA33D4DE2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>880110</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1741170</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0C40C2-9457-46C3-9F4E-FCF67A1E3156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>699248</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC7F666-F3A9-468F-8F26-27E00A8F78EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,472 +4438,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1058FF2A-26C0-4242-8E8B-5C3737B63B7C}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.09765625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>2.58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1700</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>400</v>
       </c>
-      <c r="G3" s="1">
-        <f>F3/(E3)</f>
+      <c r="H3" s="1">
+        <f>G3/(F3)</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>200</v>
       </c>
-      <c r="I3" s="1">
-        <f>H3/(E3)</f>
+      <c r="J3" s="1">
+        <f>I3/(F3)</f>
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1700</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>400</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G11" si="0">F4/(E4)</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H11" si="0">G4/(F4)</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>200</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I10" si="1">H4/(E4)</f>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J10" si="1">I4/(F4)</f>
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1700</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>280</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>0.16470588235294117</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>120</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>7.0588235294117646E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>79.2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5500</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1060</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0.19272727272727272</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>290</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>5.2727272727272727E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5500</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1060</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>0.19272727272727272</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>600</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5500</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>600</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>0.10909090909090909</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>220</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>244</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>56</v>
       </c>
-      <c r="G9" s="1">
-        <f>F9/(E9)</f>
+      <c r="H9" s="1">
+        <f>G9/(F9)</f>
         <v>0.22950819672131148</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>50</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>244</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>48</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>0.19672131147540983</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>30</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>0.12295081967213115</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>244</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>42</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>0.1721311475409836</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>12.5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2940</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>628</v>
       </c>
-      <c r="G12" s="1">
-        <f>F12/(E12)</f>
+      <c r="H12" s="1">
+        <f>G12/(F12)</f>
         <v>0.21360544217687075</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>336</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" ref="I12:I15" si="2">H12/(E12)</f>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:J15" si="2">I12/(F12)</f>
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2940</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>592</v>
       </c>
-      <c r="G13" s="1">
-        <f>F13/(E13)</f>
+      <c r="H13" s="1">
+        <f>G13/(F13)</f>
         <v>0.20136054421768707</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>344</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>0.11700680272108843</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2940</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>580</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14:G15" si="3">F14/(E14)</f>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H15" si="3">G14/(F14)</f>
         <v>0.19727891156462585</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>312</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>0.10612244897959183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3860</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>764</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="3"/>
         <v>0.19792746113989637</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>468</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>0.12124352331606218</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3900</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>940</v>
       </c>
-      <c r="G16" s="1">
-        <f>F16/(E16)</f>
+      <c r="H16" s="1">
+        <f>G16/(F16)</f>
         <v>0.24102564102564103</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>564</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" ref="I16:I17" si="4">H16/(E16)</f>
+      <c r="J16" s="1">
+        <f t="shared" ref="J16:J17" si="4">I16/(F16)</f>
         <v>0.14461538461538462</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3820</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>776</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17" si="5">F17/(E17)</f>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17" si="5">G17/(F17)</f>
         <v>0.2031413612565445</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>410</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="4"/>
         <v>0.10732984293193717</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <f>C3</f>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="4">
+        <f>D3</f>
         <v>2.58</v>
       </c>
-      <c r="B21" s="1">
-        <f>G3</f>
+      <c r="C21" s="5">
+        <f>H3</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="C21" s="2">
-        <f>G4</f>
+      <c r="D21" s="4">
+        <f>H4</f>
         <v>0.23529411764705882</v>
       </c>
+      <c r="E21">
+        <v>0.16470588235294117</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <f>C6</f>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="4">
+        <f>D15</f>
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <f>H15</f>
+        <v>0.19792746113989637</v>
+      </c>
+      <c r="D22" s="4">
+        <f>H16</f>
+        <v>0.24102564102564103</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.2031413612565445</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="4">
+        <f>D6</f>
         <v>79.2</v>
       </c>
-      <c r="B22" s="1">
-        <f>G6</f>
+      <c r="C23" s="5">
+        <f>H6</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="C22" s="2">
-        <f>G7</f>
+      <c r="D23" s="4">
+        <f>H7</f>
         <v>0.19272727272727272</v>
       </c>
+      <c r="E23">
+        <v>0.10909090909090909</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <f>C15</f>
-        <v>13</v>
-      </c>
-      <c r="B23" s="1">
-        <f>G15</f>
-        <v>0.19792746113989637</v>
-      </c>
-      <c r="C23" s="2">
-        <f>G16</f>
-        <v>0.24102564102564103</v>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+      <c r="C27">
+        <f>-0.0004*B27+0.2208</f>
+        <v>0.22056000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <f>-0.0006*B27+0.2425</f>
+        <v>0.24213999999999999</v>
+      </c>
+      <c r="E27">
+        <f>-0.001*B27+0.1897</f>
+        <v>0.18910000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/クロストークデータ.xlsx
+++ b/docs/クロストークデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuuma\Desktop\Ksimulation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F04EDB-3097-4B16-92C3-F447E911C06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9254C1A-C627-48A7-9077-783AD2B235F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B56CFB08-3319-4E04-93BD-A17BBE58B3D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>ratio</t>
     <phoneticPr fontId="1"/>
@@ -173,14 +173,24 @@
     <t>2.0mm</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>0.5mm</t>
+  </si>
+  <si>
+    <t>2.0mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,7 +262,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +449,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$21:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000_ </c:formatCode>
+                <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.23529411764705882</c:v>
@@ -554,7 +564,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000_ " sourceLinked="1"/>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -648,386 +658,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>0.5mm</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0286526684164479E-3"/>
-                  <c:y val="5.8724482356372121E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$21:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.23529411764705882</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24102564102564103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19272727272727272</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D60-4C33-8015-4073E0536F0E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="460321816"/>
-        <c:axId val="460323128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="460321816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="460323128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="460323128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="460321816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="79000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1402,7 +1032,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1560,7 +1190,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$21:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.23529411764705882</c:v>
@@ -1675,6 +1305,1014 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108781392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>1mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>（周期）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8931977252843393E-2"/>
+                  <c:y val="0.13689814814814819"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38759689922480617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2626262626262626E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19792746113989637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19272727272727272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAC5-4CC5-A65F-66952405FA3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="443312408"/>
+        <c:axId val="443315032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="443312408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>立ち上がり時間の逆数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t>(×10^9)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443315032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443315032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>クロストークの割合</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443312408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>0.5mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>（周期）</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6783464566929129E-2"/>
+                  <c:y val="0.24252369495479731"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38759689922480617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2626262626262626E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24102564102564103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19272727272727272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A7C-4C2C-982D-4330664AE963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535056912"/>
+        <c:axId val="535050680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535056912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>立ち上がり時間の逆数 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(×10^9)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535050680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535050680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>クロストークの割合</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1712,7 +2350,391 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108781392"/>
+        <c:crossAx val="535056912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>2mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>（周期）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3869641294838143E-2"/>
+                  <c:y val="-0.20607028288130655"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2031413612565445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10909090909090909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D622-4088-839B-325E62F72DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540579376"/>
+        <c:axId val="540573472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540579376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540573472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540573472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540579376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1928,6 +2950,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3992,20 +5094,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>750570</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185794</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>613410</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48633</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4032,23 +6166,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>231290</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180864</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>231289</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37876</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18ABC76D-413A-4306-95D2-BECA33D4DE2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0C40C2-9457-46C3-9F4E-FCF67A1E3156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4068,23 +6202,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>880110</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215154</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1741170</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0C40C2-9457-46C3-9F4E-FCF67A1E3156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC7F666-F3A9-468F-8F26-27E00A8F78EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,23 +6238,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>699248</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367552</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC7F666-F3A9-468F-8F26-27E00A8F78EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19006E19-7A3D-48D5-8F18-463891C3301F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,6 +6267,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>224119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5B7856-EF12-49F6-A1C7-B146B62349E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>887505</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1757082</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4D1AC4-70E9-4591-9A31-EB12F5BBF643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4438,10 +6644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1058FF2A-26C0-4242-8E8B-5C3737B63B7C}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4871,7 +7077,7 @@
         <f>H3</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <f>H4</f>
         <v>0.23529411764705882</v>
       </c>
@@ -4888,7 +7094,7 @@
         <f>H15</f>
         <v>0.19792746113989637</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <f>H16</f>
         <v>0.24102564102564103</v>
       </c>
@@ -4905,7 +7111,7 @@
         <f>H6</f>
         <v>0.19272727272727272</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <f>H7</f>
         <v>0.19272727272727272</v>
       </c>
@@ -4942,6 +7148,93 @@
       <c r="E27">
         <f>-0.001*B27+0.1897</f>
         <v>0.18910000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f>1/B27</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C28">
+        <f>0.1157*B28+0.1903</f>
+        <v>0.38313333333333333</v>
+      </c>
+      <c r="D28" s="2">
+        <f>0.0717*B28+0.2116</f>
+        <v>0.33110000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>2.58</v>
+      </c>
+      <c r="C32">
+        <f>1/B32</f>
+        <v>0.38759689922480617</v>
+      </c>
+      <c r="D32">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="F32">
+        <v>0.16470588235294117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C34" si="6">1/B33</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.19792746113989637</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.24102564102564103</v>
+      </c>
+      <c r="F33">
+        <v>0.2031413612565445</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>79.2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>1.2626262626262626E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.19272727272727272</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.19272727272727272</v>
+      </c>
+      <c r="F34">
+        <v>0.10909090909090909</v>
       </c>
     </row>
   </sheetData>

--- a/docs/クロストークデータ.xlsx
+++ b/docs/クロストークデータ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuuma\Desktop\Ksimulation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9254C1A-C627-48A7-9077-783AD2B235F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EAE039-0146-436C-B899-E1A1AD6D19FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B56CFB08-3319-4E04-93BD-A17BBE58B3D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>ratio</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +182,18 @@
   <si>
     <t>2.0mm</t>
   </si>
+  <si>
+    <t>1mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2mmm</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +202,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -262,7 +274,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6130,16 +6142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>185794</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138505</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414394</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>48633</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>138505</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>277233</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6166,16 +6178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180864</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81578</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>37876</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>81578</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>353562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6202,16 +6214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215154</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596155</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>461684</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6310,16 +6322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>887505</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223476</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>140874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1757082</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>407254</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6644,10 +6656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1058FF2A-26C0-4242-8E8B-5C3737B63B7C}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6660,6 +6672,7 @@
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.69921875" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
@@ -7027,7 +7040,7 @@
         <v>0.14461538461538462</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>7</v>
       </c>
@@ -7049,12 +7062,21 @@
         <v>0.10732984293193717</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>18</v>
       </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -7067,8 +7089,23 @@
       <c r="E20" t="s">
         <v>20</v>
       </c>
+      <c r="O20">
+        <v>0.1</v>
+      </c>
+      <c r="P20">
+        <f>0.0717*O20+0.2116</f>
+        <v>0.21877000000000002</v>
+      </c>
+      <c r="Q20">
+        <f>0.1157*O20+0.1903</f>
+        <v>0.20186999999999999</v>
+      </c>
+      <c r="R20">
+        <f>-0.001*O20+0.1897</f>
+        <v>0.18960000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="4">
         <f>D3</f>
         <v>2.58</v>
@@ -7084,8 +7121,23 @@
       <c r="E21">
         <v>0.16470588235294117</v>
       </c>
+      <c r="O21">
+        <v>0.2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P35" si="6">0.0717*O21+0.2116</f>
+        <v>0.22594</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q35" si="7">0.1157*O21+0.1903</f>
+        <v>0.21343999999999999</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R35" si="8">-0.001*O21+0.1897</f>
+        <v>0.1895</v>
+      </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="4">
         <f>D15</f>
         <v>13</v>
@@ -7101,8 +7153,23 @@
       <c r="E22" s="1">
         <v>0.2031413612565445</v>
       </c>
+      <c r="O22">
+        <v>0.3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0.23311000000000001</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>0.22500999999999999</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>0.18940000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="4">
         <f>D6</f>
         <v>79.2</v>
@@ -7118,8 +7185,57 @@
       <c r="E23">
         <v>0.10909090909090909</v>
       </c>
+      <c r="O23">
+        <v>0.4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>0.24028000000000002</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>0.23658000000000001</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>0.1893</v>
+      </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>0.24745</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>0.24814999999999998</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>0.18920000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <v>0.6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>0.25462000000000001</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>0.25972000000000001</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>0.18910000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -7132,8 +7248,23 @@
       <c r="E26" t="s">
         <v>20</v>
       </c>
+      <c r="O26">
+        <v>0.7</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0.26179000000000002</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>0.27128999999999998</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>0.189</v>
+      </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>0.6</v>
       </c>
@@ -7149,8 +7280,23 @@
         <f>-0.001*B27+0.1897</f>
         <v>0.18910000000000002</v>
       </c>
+      <c r="O27">
+        <v>0.8</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0.26896000000000003</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>0.28286</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>0.18890000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28">
         <f>1/B27</f>
         <v>1.6666666666666667</v>
@@ -7163,13 +7309,60 @@
         <f>0.0717*B28+0.2116</f>
         <v>0.33110000000000001</v>
       </c>
+      <c r="O28">
+        <v>0.9</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0.27612999999999999</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>0.29442999999999997</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>0.1888</v>
+      </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0.2833</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>0.18870000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>3</v>
       </c>
+      <c r="O30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>0.29047000000000001</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>0.31757000000000002</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>0.18860000000000002</v>
+      </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -7182,8 +7375,23 @@
       <c r="F31" t="s">
         <v>23</v>
       </c>
+      <c r="O31">
+        <v>1.2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0.29764000000000002</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>0.32913999999999999</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>0.1885</v>
+      </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>2.58</v>
       </c>
@@ -7200,13 +7408,28 @@
       <c r="F32">
         <v>0.16470588235294117</v>
       </c>
+      <c r="O32">
+        <v>1.3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0.30481000000000003</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>0.34070999999999996</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>0.18840000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>13</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C34" si="6">1/B33</f>
+        <f t="shared" ref="C33:C34" si="9">1/B33</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D33">
@@ -7218,13 +7441,32 @@
       <c r="F33">
         <v>0.2031413612565445</v>
       </c>
+      <c r="M33">
+        <f>0.6/1000000000</f>
+        <v>6E-10</v>
+      </c>
+      <c r="O33">
+        <v>1.4</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0.31198000000000004</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0.35227999999999998</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>0.1883</v>
+      </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>79.2</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2626262626262626E-2</v>
       </c>
       <c r="D34">
@@ -7235,6 +7477,43 @@
       </c>
       <c r="F34">
         <v>0.10909090909090909</v>
+      </c>
+      <c r="M34">
+        <f>1/M33</f>
+        <v>1666666666.6666667</v>
+      </c>
+      <c r="O34">
+        <v>1.5</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0.31915000000000004</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>0.36385000000000001</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>0.18820000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <f>M34/1000000000</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>0.38313333333333333</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>0.18803333333333333</v>
       </c>
     </row>
   </sheetData>
